--- a/app/seeds/01_base.xlsx
+++ b/app/seeds/01_base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24940" windowHeight="26480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="11100" yWindow="0" windowWidth="24940" windowHeight="26480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,6 @@
     <t>名前</t>
   </si>
   <si>
-    <t>Player</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表示名</t>
     <rPh sb="0" eb="3">
       <t>ヒョウジメイ</t>
@@ -885,6 +881,10 @@
     <rPh sb="5" eb="7">
       <t>▽テイシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>payer</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1132,6 +1132,77 @@
             </a:rPr>
             <a:t>この場合、一定時間が経った最終ログイン日時のユーザーが何人いて、その全員の総ログイン回数を求めることができるので、離脱したユーザーの平均ログイン回数を求めることができます</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2908300" y="254000"/>
+          <a:ext cx="4495800" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>コレクションの名前の先頭は大文字でなければなりません。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1464,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1501,58 +1572,58 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -1561,47 +1632,47 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="4">
@@ -1610,201 +1681,201 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="4"/>
@@ -1817,68 +1888,68 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q29" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -1886,7 +1957,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" s="7">
         <v>41105.909722222219</v>
@@ -1918,10 +1989,10 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="C31" s="4">
         <v>2</v>
@@ -1929,7 +2000,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G31" s="7">
         <v>41111.416666666664</v>
@@ -1965,10 +2036,10 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="C32" s="4">
         <v>3</v>
@@ -1976,7 +2047,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G32" s="7">
         <v>41116.923611053244</v>
@@ -2012,10 +2083,10 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="C33" s="4">
         <v>4</v>
@@ -2023,7 +2094,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G33" s="7">
         <v>41122.430555497682</v>
@@ -2055,10 +2126,10 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -2066,7 +2137,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" s="7">
         <v>41105.909722222219</v>
@@ -2098,10 +2169,10 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" s="4">
         <v>2</v>
@@ -2109,7 +2180,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G35" s="7">
         <v>41111.416666666664</v>
@@ -2145,10 +2216,10 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C36" s="4">
         <v>3</v>
@@ -2156,7 +2227,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" s="7">
         <v>41116.923611053244</v>
@@ -2192,10 +2263,10 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="C37" s="4">
         <v>4</v>
@@ -2203,7 +2274,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G37" s="7">
         <v>41122.430555497682</v>
@@ -2235,10 +2306,10 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="C38" s="4">
         <v>5</v>
@@ -2246,7 +2317,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G38" s="7">
         <v>41122.430555497682</v>
@@ -2311,7 +2382,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2319,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2327,58 +2398,58 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -2387,62 +2458,62 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="4">
@@ -2451,60 +2522,60 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
@@ -2514,55 +2585,55 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="187">
       <c r="A22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22" s="10">
         <v>0</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H22" s="7">
         <v>41136.784722222219</v>
@@ -2573,23 +2644,23 @@
     </row>
     <row r="23" spans="1:9" ht="187">
       <c r="A23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="10">
         <v>10</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H23" s="7">
         <v>41133.416666666664</v>
@@ -2600,21 +2671,21 @@
     </row>
     <row r="24" spans="1:9" ht="187">
       <c r="A24" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" s="10">
         <v>20</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H24" s="7">
         <v>41131.048611111109</v>
@@ -2625,21 +2696,21 @@
     </row>
     <row r="25" spans="1:9" ht="187">
       <c r="A25" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" s="10">
         <v>0</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H25" s="7">
         <v>41136.784722222219</v>
@@ -2650,23 +2721,23 @@
     </row>
     <row r="26" spans="1:9" ht="187">
       <c r="A26" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C26" s="10">
         <v>10</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H26" s="7">
         <v>41133.416666666664</v>
@@ -2677,21 +2748,21 @@
     </row>
     <row r="27" spans="1:9" ht="187">
       <c r="A27" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C27" s="10">
         <v>20</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H27" s="7">
         <v>41131.048611111109</v>
@@ -2702,21 +2773,21 @@
     </row>
     <row r="28" spans="1:9" ht="187">
       <c r="A28" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" s="10">
         <v>0</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H28" s="7">
         <v>41136.784722222219</v>
@@ -2727,23 +2798,23 @@
     </row>
     <row r="29" spans="1:9" ht="187">
       <c r="A29" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="10">
         <v>10</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H29" s="7">
         <v>41133.416666666664</v>
@@ -2754,21 +2825,21 @@
     </row>
     <row r="30" spans="1:9" ht="187">
       <c r="A30" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C30" s="10">
         <v>20</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H30" s="7">
         <v>41131.048611111109</v>
@@ -2793,8 +2864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2805,58 +2876,58 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2864,94 +2935,94 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/01_base.xlsx
+++ b/app/seeds/01_base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24940" windowHeight="26480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="16140" yWindow="1980" windowWidth="29280" windowHeight="23400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="172">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -160,18 +160,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>platform_info</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Map</t>
-  </si>
-  <si>
-    <t>プラットフォーム情報</t>
-    <rPh sb="8" eb="10">
-      <t>▽ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>first_login_at</t>
@@ -287,10 +276,6 @@
   </si>
   <si>
     <t>signature_key</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>platform_info</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -884,6 +869,29 @@
     <t>アカウント停止フラグ</t>
     <rPh sb="5" eb="7">
       <t>▽テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pf_player_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォームプレイヤーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idx_switch_login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pf_player_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォームプレイヤー情報</t>
+    <rPh sb="13" eb="15">
+      <t>▽ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -983,8 +991,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1018,7 +1032,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="21">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1026,6 +1040,9 @@
     <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1034,6 +1051,9 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1044,16 +1064,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1062,8 +1082,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10198100" y="1841500"/>
-          <a:ext cx="1993900" cy="3937000"/>
+          <a:off x="10071100" y="1638300"/>
+          <a:ext cx="2044700" cy="4394200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1462,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1483,12 +1503,12 @@
     <col min="16" max="16" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1496,7 +1516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1504,7 +1524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1512,12 +1532,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1534,13 +1554,16 @@
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1558,8 +1581,9 @@
         <v>1</v>
       </c>
       <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1573,8 +1597,9 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1590,8 +1615,9 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1607,8 +1633,9 @@
       <c r="G12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1622,657 +1649,718 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>120</v>
+        <v>46</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
       <c r="E23" s="2" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>165</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:18">
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:18">
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="J30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="N30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="1" t="s">
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B31" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="4">
         <v>1</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="7">
-        <v>41105.909722222219</v>
-      </c>
-      <c r="H30" s="7">
-        <v>41136.784722222219</v>
-      </c>
-      <c r="I30" s="7">
-        <v>41136.784722222219</v>
-      </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="8">
-        <v>100</v>
-      </c>
-      <c r="M30" s="8">
-        <v>3</v>
-      </c>
-      <c r="N30" s="8">
-        <v>5</v>
-      </c>
-      <c r="O30" s="13"/>
-      <c r="P30" s="7">
-        <v>41136.784722222219</v>
-      </c>
-      <c r="Q30" s="7">
-        <v>41136.784722222219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="4">
-        <v>2</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="7">
-        <v>41111.416666666664</v>
+      <c r="F31" s="4">
+        <v>150001</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="H31" s="7">
-        <v>41136.416666666664</v>
+        <v>41105.909722222219</v>
       </c>
       <c r="I31" s="7">
-        <v>41136.416666666664</v>
+        <v>41136.784722222219</v>
       </c>
       <c r="J31" s="7">
-        <v>41122.5</v>
-      </c>
-      <c r="K31" s="7">
-        <v>41136.5</v>
-      </c>
-      <c r="L31" s="8">
-        <v>20</v>
-      </c>
+        <v>41136.784722222219</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
       <c r="M31" s="8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N31" s="8">
-        <v>0</v>
-      </c>
-      <c r="O31" s="13"/>
-      <c r="P31" s="7">
-        <v>41136.5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O31" s="8">
+        <v>5</v>
+      </c>
+      <c r="P31" s="13"/>
       <c r="Q31" s="7">
-        <v>41136.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>41136.784722222219</v>
+      </c>
+      <c r="R31" s="7">
+        <v>41136.784722222219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C32" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="7">
-        <v>41116.923611053244</v>
+      <c r="F32" s="4">
+        <v>150002</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="H32" s="7">
-        <v>41136.048611053244</v>
+        <v>41111.416666666664</v>
       </c>
       <c r="I32" s="7">
-        <v>41136.048611053244</v>
+        <v>41136.416666666664</v>
       </c>
       <c r="J32" s="7">
-        <v>41131.833333333336</v>
+        <v>41136.416666666664</v>
       </c>
       <c r="K32" s="7">
-        <v>41131.833333333336</v>
-      </c>
-      <c r="L32" s="8">
-        <v>30</v>
+        <v>41122.5</v>
+      </c>
+      <c r="L32" s="7">
+        <v>41136.5</v>
       </c>
       <c r="M32" s="8">
+        <v>20</v>
+      </c>
+      <c r="N32" s="8">
         <v>1</v>
       </c>
-      <c r="N32" s="8">
+      <c r="O32" s="8">
+        <v>0</v>
+      </c>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="7">
+        <v>41136.5</v>
+      </c>
+      <c r="R32" s="7">
+        <v>41136.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="4">
         <v>3</v>
-      </c>
-      <c r="O32" s="13"/>
-      <c r="P32" s="7">
-        <v>41136.048611053244</v>
-      </c>
-      <c r="Q32" s="7">
-        <v>41136.048611053244</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="4">
-        <v>4</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="4">
+        <v>150003</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="7">
+        <v>41116.923611053244</v>
+      </c>
+      <c r="I33" s="7">
+        <v>41136.048611053244</v>
+      </c>
+      <c r="J33" s="7">
+        <v>41136.048611053244</v>
+      </c>
+      <c r="K33" s="7">
+        <v>41131.833333333336</v>
+      </c>
+      <c r="L33" s="7">
+        <v>41131.833333333336</v>
+      </c>
+      <c r="M33" s="8">
+        <v>30</v>
+      </c>
+      <c r="N33" s="8">
+        <v>1</v>
+      </c>
+      <c r="O33" s="8">
+        <v>3</v>
+      </c>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="7">
+        <v>41136.048611053244</v>
+      </c>
+      <c r="R33" s="7">
+        <v>41136.048611053244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="7">
-        <v>41122.430555497682</v>
-      </c>
-      <c r="H33" s="7">
-        <v>41135.680555497682</v>
-      </c>
-      <c r="I33" s="7">
-        <v>41135.680555497682</v>
-      </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="8">
-        <v>5</v>
-      </c>
-      <c r="M33" s="8">
-        <v>0</v>
-      </c>
-      <c r="N33" s="8">
-        <v>0</v>
-      </c>
-      <c r="O33" s="13"/>
-      <c r="P33" s="7">
-        <v>41135.680555497682</v>
-      </c>
-      <c r="Q33" s="7">
-        <v>41135.680555497682</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="B34" s="4" t="s">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="C34" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="4">
+        <v>150004</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="7">
-        <v>41105.909722222219</v>
-      </c>
       <c r="H34" s="7">
-        <v>41136.784722222219</v>
+        <v>41122.430555497682</v>
       </c>
       <c r="I34" s="7">
-        <v>41136.784722222219</v>
-      </c>
-      <c r="J34" s="7"/>
+        <v>41135.680555497682</v>
+      </c>
+      <c r="J34" s="7">
+        <v>41135.680555497682</v>
+      </c>
       <c r="K34" s="7"/>
-      <c r="L34" s="8">
-        <v>10</v>
-      </c>
+      <c r="L34" s="7"/>
       <c r="M34" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N34" s="8">
-        <v>5</v>
-      </c>
-      <c r="O34" s="13"/>
-      <c r="P34" s="7">
-        <v>41136.784722222219</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O34" s="8">
+        <v>0</v>
+      </c>
+      <c r="P34" s="13"/>
       <c r="Q34" s="7">
-        <v>41136.784722222219</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>41135.680555497682</v>
+      </c>
+      <c r="R34" s="7">
+        <v>41135.680555497682</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C35" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" s="7">
-        <v>41111.416666666664</v>
+      <c r="F35" s="4">
+        <v>150005</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="H35" s="7">
-        <v>41136.416666666664</v>
+        <v>41105.909722222219</v>
       </c>
       <c r="I35" s="7">
-        <v>41136.416666666664</v>
+        <v>41136.784722222219</v>
       </c>
       <c r="J35" s="7">
-        <v>41122.5</v>
-      </c>
-      <c r="K35" s="7">
-        <v>41136.5</v>
-      </c>
-      <c r="L35" s="8">
+        <v>41136.784722222219</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="8">
+        <v>10</v>
+      </c>
+      <c r="N35" s="8">
+        <v>3</v>
+      </c>
+      <c r="O35" s="8">
+        <v>5</v>
+      </c>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="7">
+        <v>41136.784722222219</v>
+      </c>
+      <c r="R35" s="7">
+        <v>41136.784722222219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="4">
         <v>2</v>
-      </c>
-      <c r="M35" s="8">
-        <v>1</v>
-      </c>
-      <c r="N35" s="8">
-        <v>0</v>
-      </c>
-      <c r="O35" s="13"/>
-      <c r="P35" s="7">
-        <v>41136.5</v>
-      </c>
-      <c r="Q35" s="7">
-        <v>41136.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" s="4">
-        <v>3</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" s="7">
-        <v>41116.923611053244</v>
+      <c r="F36" s="4">
+        <v>150006</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="H36" s="7">
-        <v>41136.048611053244</v>
+        <v>41111.416666666664</v>
       </c>
       <c r="I36" s="7">
-        <v>41136.048611053244</v>
+        <v>41136.416666666664</v>
       </c>
       <c r="J36" s="7">
-        <v>41131.833333333336</v>
+        <v>41136.416666666664</v>
       </c>
       <c r="K36" s="7">
-        <v>41131.833333333336</v>
-      </c>
-      <c r="L36" s="8">
-        <v>3</v>
+        <v>41122.5</v>
+      </c>
+      <c r="L36" s="7">
+        <v>41136.5</v>
       </c>
       <c r="M36" s="8">
+        <v>2</v>
+      </c>
+      <c r="N36" s="8">
         <v>1</v>
       </c>
-      <c r="N36" s="8">
-        <v>3</v>
-      </c>
-      <c r="O36" s="13"/>
-      <c r="P36" s="7">
-        <v>41136.048611053244</v>
-      </c>
+      <c r="O36" s="8">
+        <v>0</v>
+      </c>
+      <c r="P36" s="13"/>
       <c r="Q36" s="7">
-        <v>41136.048611053244</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>41136.5</v>
+      </c>
+      <c r="R36" s="7">
+        <v>41136.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C37" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="7">
-        <v>41122.430555497682</v>
+      <c r="F37" s="4">
+        <v>150007</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="H37" s="7">
-        <v>41135.680555497682</v>
+        <v>41116.923611053244</v>
       </c>
       <c r="I37" s="7">
-        <v>41135.680555497682</v>
-      </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="8">
+        <v>41136.048611053244</v>
+      </c>
+      <c r="J37" s="7">
+        <v>41136.048611053244</v>
+      </c>
+      <c r="K37" s="7">
+        <v>41131.833333333336</v>
+      </c>
+      <c r="L37" s="7">
+        <v>41131.833333333336</v>
+      </c>
+      <c r="M37" s="8">
+        <v>3</v>
+      </c>
+      <c r="N37" s="8">
         <v>1</v>
       </c>
-      <c r="M37" s="8">
-        <v>0</v>
-      </c>
-      <c r="N37" s="8">
-        <v>0</v>
-      </c>
-      <c r="O37" s="13"/>
-      <c r="P37" s="7">
-        <v>41135.680555497682</v>
-      </c>
+      <c r="O37" s="8">
+        <v>3</v>
+      </c>
+      <c r="P37" s="13"/>
       <c r="Q37" s="7">
-        <v>41135.680555497682</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>41136.048611053244</v>
+      </c>
+      <c r="R37" s="7">
+        <v>41136.048611053244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="4" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C38" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G38" s="7">
+      <c r="F38" s="4">
+        <v>150008</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" s="7">
         <v>41122.430555497682</v>
-      </c>
-      <c r="H38" s="7">
-        <v>41135.680555497682</v>
       </c>
       <c r="I38" s="7">
         <v>41135.680555497682</v>
       </c>
-      <c r="J38" s="7"/>
+      <c r="J38" s="7">
+        <v>41135.680555497682</v>
+      </c>
       <c r="K38" s="7"/>
-      <c r="L38" s="8">
+      <c r="L38" s="7"/>
+      <c r="M38" s="8">
         <v>1</v>
-      </c>
-      <c r="M38" s="8">
-        <v>0</v>
       </c>
       <c r="N38" s="8">
         <v>0</v>
       </c>
-      <c r="O38" s="13"/>
-      <c r="P38" s="7">
+      <c r="O38" s="8">
+        <v>0</v>
+      </c>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="7">
         <v>41135.680555497682</v>
       </c>
-      <c r="Q38" s="7">
+      <c r="R38" s="7">
+        <v>41135.680555497682</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="4">
+        <v>5</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4">
+        <v>150009</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="7">
+        <v>41122.430555497682</v>
+      </c>
+      <c r="I39" s="7">
+        <v>41135.680555497682</v>
+      </c>
+      <c r="J39" s="7">
+        <v>41135.680555497682</v>
+      </c>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="8">
+        <v>1</v>
+      </c>
+      <c r="N39" s="8">
+        <v>0</v>
+      </c>
+      <c r="O39" s="8">
+        <v>0</v>
+      </c>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="7">
+        <v>41135.680555497682</v>
+      </c>
+      <c r="R39" s="7">
         <v>41135.680555497682</v>
       </c>
     </row>
@@ -2311,7 +2399,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2319,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2327,7 +2415,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2335,7 +2423,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2345,7 +2433,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -2360,25 +2448,25 @@
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -2387,22 +2475,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
@@ -2412,29 +2500,29 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>19</v>
@@ -2442,7 +2530,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="4">
@@ -2451,60 +2539,60 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
@@ -2514,55 +2602,55 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="H21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="187">
       <c r="A22" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C22" s="10">
         <v>0</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H22" s="7">
         <v>41136.784722222219</v>
@@ -2573,23 +2661,23 @@
     </row>
     <row r="23" spans="1:9" ht="187">
       <c r="A23" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C23" s="10">
         <v>10</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
         <v>41133.416666666664</v>
@@ -2600,21 +2688,21 @@
     </row>
     <row r="24" spans="1:9" ht="187">
       <c r="A24" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C24" s="10">
         <v>20</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H24" s="7">
         <v>41131.048611111109</v>
@@ -2625,21 +2713,21 @@
     </row>
     <row r="25" spans="1:9" ht="187">
       <c r="A25" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C25" s="10">
         <v>0</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H25" s="7">
         <v>41136.784722222219</v>
@@ -2650,23 +2738,23 @@
     </row>
     <row r="26" spans="1:9" ht="187">
       <c r="A26" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C26" s="10">
         <v>10</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H26" s="7">
         <v>41133.416666666664</v>
@@ -2677,21 +2765,21 @@
     </row>
     <row r="27" spans="1:9" ht="187">
       <c r="A27" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C27" s="10">
         <v>20</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H27" s="7">
         <v>41131.048611111109</v>
@@ -2702,21 +2790,21 @@
     </row>
     <row r="28" spans="1:9" ht="187">
       <c r="A28" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C28" s="10">
         <v>0</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H28" s="7">
         <v>41136.784722222219</v>
@@ -2727,23 +2815,23 @@
     </row>
     <row r="29" spans="1:9" ht="187">
       <c r="A29" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C29" s="10">
         <v>10</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H29" s="7">
         <v>41133.416666666664</v>
@@ -2754,21 +2842,21 @@
     </row>
     <row r="30" spans="1:9" ht="187">
       <c r="A30" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C30" s="10">
         <v>20</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H30" s="7">
         <v>41131.048611111109</v>
@@ -2793,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2805,23 +2893,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>22</v>
@@ -2829,15 +2917,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>19</v>
@@ -2845,18 +2933,18 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2864,94 +2952,94 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/01_base.xlsx
+++ b/app/seeds/01_base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16140" yWindow="1980" windowWidth="29280" windowHeight="23400" tabRatio="500"/>
+    <workbookView xWindow="4600" yWindow="0" windowWidth="44460" windowHeight="24120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="179">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -892,6 +892,46 @@
     <t>プラットフォームプレイヤー情報</t>
     <rPh sb="13" eb="15">
       <t>▽ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 備考</t>
+    <rPh sb="2" eb="4">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fontana:1000010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>juro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># fontana:1000009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除されたプレイヤー</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加されたプレイヤー</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>levelが4から8に変更されたプレイヤー</t>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -991,8 +1031,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1032,7 +1078,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="27">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1043,6 +1089,9 @@
     <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1054,6 +1103,9 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1152,6 +1204,93 @@
             </a:rPr>
             <a:t>この場合、一定時間が経った最終ログイン日時のユーザーが何人いて、その全員の総ログイン回数を求めることができるので、離脱したユーザーの平均ログイン回数を求めることができます</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1892300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16662400" y="4737100"/>
+          <a:ext cx="6731000" cy="1625600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プレイヤーはトランザクショナルなデータなので、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AppSeed</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ファイルを変更しても、実際のデータには反映されません。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1482,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1501,6 +1640,8 @@
     <col min="14" max="14" width="15.5" customWidth="1"/>
     <col min="15" max="15" width="16.33203125" customWidth="1"/>
     <col min="16" max="16" width="16.5" customWidth="1"/>
+    <col min="17" max="18" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1701,7 +1842,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1717,7 +1858,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1733,7 +1874,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -1749,7 +1890,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -1765,7 +1906,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -1783,7 +1924,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:19">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1801,7 +1942,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:19">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -1819,7 +1960,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
         <v>165</v>
       </c>
@@ -1835,7 +1976,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1851,7 +1992,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1867,18 +2008,18 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:19">
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:19">
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:19">
       <c r="A29" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:19">
       <c r="A30" s="1" t="s">
         <v>53</v>
       </c>
@@ -1933,8 +2074,11 @@
       <c r="R30" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="4" t="s">
         <v>62</v>
       </c>
@@ -1979,8 +2123,9 @@
       <c r="R31" s="7">
         <v>41136.784722222219</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" s="13"/>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="4" t="s">
         <v>64</v>
       </c>
@@ -2029,8 +2174,9 @@
       <c r="R32" s="7">
         <v>41136.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" s="13"/>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="4" t="s">
         <v>67</v>
       </c>
@@ -2079,8 +2225,9 @@
       <c r="R33" s="7">
         <v>41136.048611053244</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" s="13"/>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="4" t="s">
         <v>69</v>
       </c>
@@ -2125,8 +2272,9 @@
       <c r="R34" s="7">
         <v>41135.680555497682</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" s="13"/>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="4" t="s">
         <v>147</v>
       </c>
@@ -2171,8 +2319,9 @@
       <c r="R35" s="7">
         <v>41136.784722222219</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" s="13"/>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="4" t="s">
         <v>148</v>
       </c>
@@ -2221,8 +2370,9 @@
       <c r="R36" s="7">
         <v>41136.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" s="13"/>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="4" t="s">
         <v>149</v>
       </c>
@@ -2271,8 +2421,9 @@
       <c r="R37" s="7">
         <v>41136.048611053244</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37" s="13"/>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="4" t="s">
         <v>150</v>
       </c>
@@ -2280,7 +2431,7 @@
         <v>151</v>
       </c>
       <c r="C38" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -2317,10 +2468,13 @@
       <c r="R38" s="7">
         <v>41135.680555497682</v>
       </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="4" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>161</v>
@@ -2362,6 +2516,58 @@
       </c>
       <c r="R39" s="7">
         <v>41135.680555497682</v>
+      </c>
+      <c r="S39" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="4">
+        <v>4</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4">
+        <v>150010</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="7">
+        <v>41122.430555497682</v>
+      </c>
+      <c r="I40" s="7">
+        <v>41135.680555497682</v>
+      </c>
+      <c r="J40" s="7">
+        <v>41135.680555497682</v>
+      </c>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="8">
+        <v>2</v>
+      </c>
+      <c r="N40" s="8">
+        <v>0</v>
+      </c>
+      <c r="O40" s="8">
+        <v>0</v>
+      </c>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="7">
+        <v>41135.680555497682</v>
+      </c>
+      <c r="R40" s="7">
+        <v>41135.680555497682</v>
+      </c>
+      <c r="S40" s="13" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/01_base.xlsx
+++ b/app/seeds/01_base.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16140" yWindow="1980" windowWidth="29280" windowHeight="23400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー" sheetId="1" r:id="rId1"/>
@@ -299,16 +299,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fontana:1000001</t>
-  </si>
-  <si>
     <t>{}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fontana:1000002</t>
-  </si>
-  <si>
     <t>jiro</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -317,14 +311,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fontana:1000003</t>
-  </si>
-  <si>
     <t>subrow</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fontana:1000004</t>
   </si>
   <si>
     <t>shirow</t>
@@ -717,18 +705,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fontana:1000005</t>
-  </si>
-  <si>
-    <t>fontana:1000006</t>
-  </si>
-  <si>
-    <t>fontana:1000007</t>
-  </si>
-  <si>
-    <t>fontana:1000008</t>
-  </si>
-  <si>
     <t>hachi</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -820,10 +796,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fontana:1000009</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>kurow</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -843,10 +815,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fontana:1000006</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>{
   "hp": 15, "max_hp": 15,
   "mp": 5, "max_mp": 5,
@@ -893,6 +861,37 @@
     <rPh sb="13" eb="15">
       <t>▽ジョウホウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000001</t>
+  </si>
+  <si>
+    <t>1000002</t>
+  </si>
+  <si>
+    <t>1000003</t>
+  </si>
+  <si>
+    <t>1000004</t>
+  </si>
+  <si>
+    <t>1000005</t>
+  </si>
+  <si>
+    <t>1000006</t>
+  </si>
+  <si>
+    <t>1000007</t>
+  </si>
+  <si>
+    <t>1000008</t>
+  </si>
+  <si>
+    <t>1000009</t>
+  </si>
+  <si>
+    <t>1000001</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1014,7 +1013,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1031,6 +1030,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1484,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1554,13 +1554,13 @@
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1653,7 +1653,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>25</v>
@@ -1661,7 +1661,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
@@ -1679,7 +1679,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
@@ -1821,15 +1821,15 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
@@ -1895,10 +1895,10 @@
         <v>56</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>57</v>
@@ -1925,7 +1925,7 @@
         <v>46</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>48</v>
@@ -1935,11 +1935,11 @@
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="4" t="s">
-        <v>62</v>
+      <c r="A31" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
@@ -1950,7 +1950,7 @@
         <v>150001</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H31" s="7">
         <v>41105.909722222219</v>
@@ -1981,11 +1981,11 @@
       </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="4" t="s">
-        <v>64</v>
+      <c r="A32" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="4">
         <v>2</v>
@@ -1996,7 +1996,7 @@
         <v>150002</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H32" s="7">
         <v>41111.416666666664</v>
@@ -2031,11 +2031,11 @@
       </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="4" t="s">
-        <v>67</v>
+      <c r="A33" s="14" t="s">
+        <v>164</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C33" s="4">
         <v>3</v>
@@ -2046,7 +2046,7 @@
         <v>150003</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H33" s="7">
         <v>41116.923611053244</v>
@@ -2081,11 +2081,11 @@
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="4" t="s">
-        <v>69</v>
+      <c r="A34" s="14" t="s">
+        <v>165</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C34" s="4">
         <v>4</v>
@@ -2096,7 +2096,7 @@
         <v>150004</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H34" s="7">
         <v>41122.430555497682</v>
@@ -2127,11 +2127,11 @@
       </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="4" t="s">
-        <v>147</v>
+      <c r="A35" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
@@ -2142,7 +2142,7 @@
         <v>150005</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H35" s="7">
         <v>41105.909722222219</v>
@@ -2173,11 +2173,11 @@
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="4" t="s">
-        <v>148</v>
+      <c r="A36" s="14" t="s">
+        <v>167</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C36" s="4">
         <v>2</v>
@@ -2188,7 +2188,7 @@
         <v>150006</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H36" s="7">
         <v>41111.416666666664</v>
@@ -2223,11 +2223,11 @@
       </c>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="4" t="s">
-        <v>149</v>
+      <c r="A37" s="14" t="s">
+        <v>168</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C37" s="4">
         <v>3</v>
@@ -2238,7 +2238,7 @@
         <v>150007</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H37" s="7">
         <v>41116.923611053244</v>
@@ -2273,11 +2273,11 @@
       </c>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="4" t="s">
-        <v>150</v>
+      <c r="A38" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C38" s="4">
         <v>4</v>
@@ -2288,7 +2288,7 @@
         <v>150008</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H38" s="7">
         <v>41122.430555497682</v>
@@ -2319,11 +2319,11 @@
       </c>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="4" t="s">
-        <v>160</v>
+      <c r="A39" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C39" s="4">
         <v>5</v>
@@ -2334,7 +2334,7 @@
         <v>150009</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H39" s="7">
         <v>41122.430555497682</v>
@@ -2381,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2399,7 +2399,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2415,7 +2415,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2423,7 +2423,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2433,7 +2433,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -2448,25 +2448,25 @@
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
@@ -2483,14 +2483,14 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
@@ -2500,29 +2500,29 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>19</v>
@@ -2530,7 +2530,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="4">
@@ -2539,30 +2539,30 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
@@ -2577,14 +2577,14 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
@@ -2602,55 +2602,55 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="187">
-      <c r="A22" s="4" t="s">
-        <v>62</v>
+      <c r="A22" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C22" s="10">
         <v>0</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H22" s="7">
         <v>41136.784722222219</v>
@@ -2660,24 +2660,24 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="187">
-      <c r="A23" s="4" t="s">
-        <v>64</v>
+      <c r="A23" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C23" s="10">
         <v>10</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E23" s="10"/>
-      <c r="F23" s="4" t="s">
-        <v>67</v>
+      <c r="F23" s="14" t="s">
+        <v>164</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H23" s="7">
         <v>41133.416666666664</v>
@@ -2687,22 +2687,22 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="187">
-      <c r="A24" s="4" t="s">
-        <v>67</v>
+      <c r="A24" s="14" t="s">
+        <v>164</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C24" s="10">
         <v>20</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H24" s="7">
         <v>41131.048611111109</v>
@@ -2712,22 +2712,22 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="187">
-      <c r="A25" s="4" t="s">
-        <v>69</v>
+      <c r="A25" s="14" t="s">
+        <v>165</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C25" s="10">
         <v>0</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H25" s="7">
         <v>41136.784722222219</v>
@@ -2737,24 +2737,24 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="187">
-      <c r="A26" s="4" t="s">
-        <v>147</v>
+      <c r="A26" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C26" s="10">
         <v>10</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E26" s="10"/>
-      <c r="F26" s="4" t="s">
-        <v>163</v>
+      <c r="F26" s="14" t="s">
+        <v>167</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H26" s="7">
         <v>41133.416666666664</v>
@@ -2764,22 +2764,22 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="187">
-      <c r="A27" s="4" t="s">
-        <v>148</v>
+      <c r="A27" s="14" t="s">
+        <v>167</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C27" s="10">
         <v>20</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H27" s="7">
         <v>41131.048611111109</v>
@@ -2789,22 +2789,22 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="187">
-      <c r="A28" s="4" t="s">
-        <v>149</v>
+      <c r="A28" s="14" t="s">
+        <v>168</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C28" s="10">
         <v>0</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H28" s="7">
         <v>41136.784722222219</v>
@@ -2814,24 +2814,24 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="187">
-      <c r="A29" s="4" t="s">
-        <v>150</v>
+      <c r="A29" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C29" s="10">
         <v>10</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E29" s="10"/>
-      <c r="F29" s="4" t="s">
-        <v>160</v>
+      <c r="F29" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H29" s="7">
         <v>41133.416666666664</v>
@@ -2841,22 +2841,22 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="187">
-      <c r="A30" s="4" t="s">
-        <v>160</v>
+      <c r="A30" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C30" s="10">
         <v>20</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H30" s="7">
         <v>41131.048611111109</v>
@@ -2893,23 +2893,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>22</v>
@@ -2917,15 +2917,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>19</v>
@@ -2933,18 +2933,18 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2952,94 +2952,94 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/01_base.xlsx
+++ b/app/seeds/01_base.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="178">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -892,6 +892,36 @@
   </si>
   <si>
     <t>1000001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>require_field</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須フィールド</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>require_field</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -990,8 +1020,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1032,7 +1066,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="25">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1043,6 +1077,8 @@
     <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1054,6 +1090,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2379,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="J24" sqref="J24:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2582,7 +2620,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
         <v>90</v>
       </c>
@@ -2597,272 +2635,319 @@
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="19" spans="1:9">
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="6" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="187">
-      <c r="A22" s="14" t="s">
+      <c r="J22" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="187">
+      <c r="A23" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B23" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C23" s="10">
         <v>0</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D23" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H23" s="7">
         <v>41136.784722222219</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I23" s="7">
         <v>41136.784722222219</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="187">
-      <c r="A23" s="14" t="s">
+      <c r="J23" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="187">
+      <c r="A24" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C24" s="10">
         <v>10</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="14" t="s">
+      <c r="E24" s="10"/>
+      <c r="F24" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H24" s="7">
         <v>41133.416666666664</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I24" s="7">
         <v>41136.416666666664</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="187">
-      <c r="A24" s="14" t="s">
+      <c r="J24" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="187">
+      <c r="A25" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C25" s="10">
         <v>20</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="7">
-        <v>41131.048611111109</v>
-      </c>
-      <c r="I24" s="7">
-        <v>41136.048611053244</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="187">
-      <c r="A25" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="10">
-        <v>0</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="7">
+        <v>41131.048611111109</v>
+      </c>
+      <c r="I25" s="7">
+        <v>41136.048611053244</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="187">
+      <c r="A26" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H26" s="7">
         <v>41136.784722222219</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I26" s="7">
         <v>41136.784722222219</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="187">
-      <c r="A26" s="14" t="s">
+      <c r="J26" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="187">
+      <c r="A27" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C27" s="10">
         <v>10</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="14" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H27" s="7">
         <v>41133.416666666664</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I27" s="7">
         <v>41136.416666666664</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="187">
-      <c r="A27" s="14" t="s">
+      <c r="J27" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="187">
+      <c r="A28" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B28" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C28" s="10">
         <v>20</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10" t="s">
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="7">
-        <v>41131.048611111109</v>
-      </c>
-      <c r="I27" s="7">
-        <v>41136.048611053244</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="187">
-      <c r="A28" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="10">
-        <v>0</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
         <v>101</v>
       </c>
       <c r="H28" s="7">
+        <v>41131.048611111109</v>
+      </c>
+      <c r="I28" s="7">
+        <v>41136.048611053244</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="187">
+      <c r="A29" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="7">
         <v>41136.784722222219</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I29" s="7">
         <v>41136.784722222219</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="187">
-      <c r="A29" s="14" t="s">
+      <c r="J29" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="187">
+      <c r="A30" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C30" s="10">
         <v>10</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="14" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H30" s="7">
         <v>41133.416666666664</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I30" s="7">
         <v>41136.416666666664</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="187">
-      <c r="A30" s="14" t="s">
+      <c r="J30" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="187">
+      <c r="A31" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B31" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C31" s="10">
         <v>20</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10" t="s">
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10" t="s">
+      <c r="F31" s="10"/>
+      <c r="G31" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H31" s="7">
         <v>41131.048611111109</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I31" s="7">
         <v>41136.048611053244</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/01_base.xlsx
+++ b/app/seeds/01_base.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="176">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -895,14 +895,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>require_field</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文字列</t>
-    <rPh sb="0" eb="3">
-      <t>モジレツ</t>
-    </rPh>
+    <t>gender</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -910,18 +903,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>必須フィールド</t>
+    <t>性別</t>
     <rPh sb="0" eb="2">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>require_field</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト</t>
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gender</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2419,8 +2408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24:J31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2640,14 +2629,16 @@
         <v>172</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -2689,7 +2680,7 @@
         <v>99</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="187">
@@ -2716,8 +2707,8 @@
       <c r="I23" s="7">
         <v>41136.784722222219</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>177</v>
+      <c r="J23" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="187">
@@ -2746,8 +2737,8 @@
       <c r="I24" s="7">
         <v>41136.416666666664</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>177</v>
+      <c r="J24" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="187">
@@ -2774,8 +2765,8 @@
       <c r="I25" s="7">
         <v>41136.048611053244</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>177</v>
+      <c r="J25" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="187">
@@ -2802,8 +2793,8 @@
       <c r="I26" s="7">
         <v>41136.784722222219</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>177</v>
+      <c r="J26" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="187">
@@ -2832,8 +2823,8 @@
       <c r="I27" s="7">
         <v>41136.416666666664</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>177</v>
+      <c r="J27" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="187">
@@ -2860,8 +2851,8 @@
       <c r="I28" s="7">
         <v>41136.048611053244</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>177</v>
+      <c r="J28" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="187">
@@ -2888,8 +2879,8 @@
       <c r="I29" s="7">
         <v>41136.784722222219</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>177</v>
+      <c r="J29" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="187">
@@ -2918,8 +2909,8 @@
       <c r="I30" s="7">
         <v>41136.416666666664</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>177</v>
+      <c r="J30" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="187">
@@ -2946,8 +2937,8 @@
       <c r="I31" s="7">
         <v>41136.048611053244</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>177</v>
+      <c r="J31" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/01_base.xlsx
+++ b/app/seeds/01_base.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30560" windowHeight="25440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー" sheetId="1" r:id="rId1"/>
@@ -191,13 +191,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>最終ログイン日時</t>
-    <rPh sb="6" eb="8">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>first_paid_at</t>
   </si>
   <si>
@@ -912,6 +905,9 @@
   <si>
     <t>gender</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前回ログイン日時</t>
   </si>
 </sst>
 </file>
@@ -1511,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1581,13 +1577,13 @@
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1680,7 +1676,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>25</v>
@@ -1688,7 +1684,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
@@ -1698,7 +1694,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
@@ -1706,7 +1702,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
@@ -1754,7 +1750,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -1762,7 +1758,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>31</v>
@@ -1770,7 +1766,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
@@ -1778,7 +1774,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>31</v>
@@ -1786,7 +1782,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
@@ -1794,17 +1790,17 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
@@ -1812,17 +1808,17 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
@@ -1830,17 +1826,17 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="4"/>
@@ -1848,15 +1844,15 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
@@ -1864,7 +1860,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>31</v>
@@ -1872,7 +1868,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="4"/>
@@ -1880,7 +1876,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>31</v>
@@ -1888,7 +1884,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
@@ -1902,71 +1898,71 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R30" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
@@ -1977,7 +1973,7 @@
         <v>150001</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H31" s="7">
         <v>41105.909722222219</v>
@@ -2009,10 +2005,10 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="4">
         <v>2</v>
@@ -2023,7 +2019,7 @@
         <v>150002</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H32" s="7">
         <v>41111.416666666664</v>
@@ -2059,10 +2055,10 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="4">
         <v>3</v>
@@ -2073,7 +2069,7 @@
         <v>150003</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" s="7">
         <v>41116.923611053244</v>
@@ -2109,10 +2105,10 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="4">
         <v>4</v>
@@ -2123,7 +2119,7 @@
         <v>150004</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" s="7">
         <v>41122.430555497682</v>
@@ -2155,10 +2151,10 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
@@ -2169,7 +2165,7 @@
         <v>150005</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H35" s="7">
         <v>41105.909722222219</v>
@@ -2201,10 +2197,10 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C36" s="4">
         <v>2</v>
@@ -2215,7 +2211,7 @@
         <v>150006</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H36" s="7">
         <v>41111.416666666664</v>
@@ -2251,10 +2247,10 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C37" s="4">
         <v>3</v>
@@ -2265,7 +2261,7 @@
         <v>150007</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H37" s="7">
         <v>41116.923611053244</v>
@@ -2301,10 +2297,10 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38" s="4">
         <v>4</v>
@@ -2315,7 +2311,7 @@
         <v>150008</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H38" s="7">
         <v>41122.430555497682</v>
@@ -2347,10 +2343,10 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C39" s="4">
         <v>5</v>
@@ -2361,7 +2357,7 @@
         <v>150009</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H39" s="7">
         <v>41122.430555497682</v>
@@ -2408,7 +2404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -2426,7 +2422,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2434,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2442,7 +2438,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2450,7 +2446,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2460,7 +2456,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -2475,25 +2471,25 @@
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -2502,7 +2498,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
@@ -2510,14 +2506,14 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
@@ -2527,29 +2523,29 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>19</v>
@@ -2557,7 +2553,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="4">
@@ -2566,37 +2562,37 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
@@ -2604,14 +2600,14 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
@@ -2619,26 +2615,26 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -2648,58 +2644,58 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="187">
       <c r="A23" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C23" s="10">
         <v>0</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H23" s="7">
         <v>41136.784722222219</v>
@@ -2713,23 +2709,23 @@
     </row>
     <row r="24" spans="1:10" ht="187">
       <c r="A24" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="10">
         <v>10</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H24" s="7">
         <v>41133.416666666664</v>
@@ -2743,21 +2739,21 @@
     </row>
     <row r="25" spans="1:10" ht="187">
       <c r="A25" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" s="10">
         <v>20</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H25" s="7">
         <v>41131.048611111109</v>
@@ -2771,21 +2767,21 @@
     </row>
     <row r="26" spans="1:10" ht="187">
       <c r="A26" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="10">
         <v>0</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H26" s="7">
         <v>41136.784722222219</v>
@@ -2799,23 +2795,23 @@
     </row>
     <row r="27" spans="1:10" ht="187">
       <c r="A27" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" s="10">
         <v>10</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H27" s="7">
         <v>41133.416666666664</v>
@@ -2829,21 +2825,21 @@
     </row>
     <row r="28" spans="1:10" ht="187">
       <c r="A28" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" s="10">
         <v>20</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H28" s="7">
         <v>41131.048611111109</v>
@@ -2857,21 +2853,21 @@
     </row>
     <row r="29" spans="1:10" ht="187">
       <c r="A29" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29" s="10">
         <v>0</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H29" s="7">
         <v>41136.784722222219</v>
@@ -2885,23 +2881,23 @@
     </row>
     <row r="30" spans="1:10" ht="187">
       <c r="A30" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C30" s="10">
         <v>10</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H30" s="7">
         <v>41133.416666666664</v>
@@ -2915,21 +2911,21 @@
     </row>
     <row r="31" spans="1:10" ht="187">
       <c r="A31" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C31" s="10">
         <v>20</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H31" s="7">
         <v>41131.048611111109</v>
@@ -2969,23 +2965,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>22</v>
@@ -2993,15 +2989,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>19</v>
@@ -3009,18 +3005,18 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3028,94 +3024,94 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
